--- a/code/validator/www/microplastic_images/image_explorer_example_data2.xlsx
+++ b/code/validator/www/microplastic_images/image_explorer_example_data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/Microplastic_Data_Portal/code/validator/www/microplastic_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD89C88-F6B2-CB40-ABC9-4FF862E6A56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0A56BD-74E0-3349-89DF-B6C88A5536FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="780" windowWidth="26840" windowHeight="14640" xr2:uid="{5F56E0CC-79D7-744E-9364-1C80BF92CAF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>ImageFile</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>light</t>
+  </si>
+  <si>
+    <t>MicroplasticImages</t>
   </si>
 </sst>
 </file>
@@ -484,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D90751-25FD-0F45-9394-C9EAD57090CC}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +544,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -577,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -618,7 +624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>

--- a/code/validator/www/microplastic_images/image_explorer_example_data2.xlsx
+++ b/code/validator/www/microplastic_images/image_explorer_example_data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/Microplastic_Data_Portal/code/validator/www/microplastic_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0A56BD-74E0-3349-89DF-B6C88A5536FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E703B9-A47B-AF43-8C85-BC41572865E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="780" windowWidth="26840" windowHeight="14640" xr2:uid="{5F56E0CC-79D7-744E-9364-1C80BF92CAF1}"/>
+    <workbookView xWindow="700" yWindow="2140" windowWidth="26840" windowHeight="14640" xr2:uid="{5F56E0CC-79D7-744E-9364-1C80BF92CAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
